--- a/datenRF4/AFL/i=23,28 Scheibenbremse, Abtriebswelle=22/Prozesse_Stückliste_L1_S4_i23,28_Scheiben, Ab22.xlsx
+++ b/datenRF4/AFL/i=23,28 Scheibenbremse, Abtriebswelle=22/Prozesse_Stückliste_L1_S4_i23,28_Scheiben, Ab22.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="142">
   <si>
     <t>Sequenz</t>
   </si>
@@ -1143,7 +1143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1277,9 +1277,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
@@ -1398,6 +1395,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1671,7 +1680,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1707,18 +1716,18 @@
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
-      <c r="F1" s="117" t="s">
+      <c r="F1" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="118"/>
-      <c r="H1" s="119" t="s">
+      <c r="G1" s="117"/>
+      <c r="H1" s="118" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="120"/>
-      <c r="J1" s="121" t="s">
+      <c r="I1" s="119"/>
+      <c r="J1" s="120" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="122"/>
+      <c r="K1" s="121"/>
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1">
       <c r="A2" s="21" t="s">
@@ -3630,18 +3639,18 @@
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
-      <c r="F1" s="117" t="s">
+      <c r="F1" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="118"/>
-      <c r="H1" s="119" t="s">
+      <c r="G1" s="117"/>
+      <c r="H1" s="118" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="120"/>
-      <c r="J1" s="121" t="s">
+      <c r="I1" s="119"/>
+      <c r="J1" s="120" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="122"/>
+      <c r="K1" s="121"/>
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1">
       <c r="A2" s="21" t="s">
@@ -5586,18 +5595,18 @@
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
-      <c r="F1" s="117" t="s">
+      <c r="F1" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="118"/>
-      <c r="H1" s="119" t="s">
+      <c r="G1" s="117"/>
+      <c r="H1" s="118" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="120"/>
-      <c r="J1" s="121" t="s">
+      <c r="I1" s="119"/>
+      <c r="J1" s="120" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="122"/>
+      <c r="K1" s="121"/>
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1">
       <c r="A2" s="21" t="s">
@@ -7542,18 +7551,18 @@
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
-      <c r="F1" s="117" t="s">
+      <c r="F1" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="118"/>
-      <c r="H1" s="119" t="s">
+      <c r="G1" s="117"/>
+      <c r="H1" s="118" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="120"/>
-      <c r="J1" s="121" t="s">
+      <c r="I1" s="119"/>
+      <c r="J1" s="120" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="122"/>
+      <c r="K1" s="121"/>
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1">
       <c r="A2" s="21" t="s">
@@ -9476,10 +9485,10 @@
   <dimension ref="A1:U118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="I100" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="I91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E108" sqref="E108:G108"/>
+      <selection pane="bottomRight" activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -9489,7 +9498,7 @@
     <col min="4" max="4" width="4.6328125" customWidth="1"/>
     <col min="5" max="5" width="29.453125" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" customWidth="1"/>
-    <col min="7" max="7" width="15.6328125" style="90" customWidth="1"/>
+    <col min="7" max="7" width="15.6328125" style="89" customWidth="1"/>
     <col min="8" max="8" width="5.81640625" customWidth="1"/>
     <col min="9" max="9" width="29" customWidth="1"/>
     <col min="10" max="10" width="9.1796875" customWidth="1"/>
@@ -9511,60 +9520,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" thickBot="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="131" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="131" t="s">
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="130" t="s">
         <v>140</v>
       </c>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="123" t="s">
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="122" t="s">
         <v>139</v>
       </c>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="123"/>
-      <c r="T1" s="123"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="122"/>
+      <c r="S1" s="122"/>
+      <c r="T1" s="122"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="127" t="s">
+      <c r="B2" s="125"/>
+      <c r="C2" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="128"/>
-      <c r="E2" s="129" t="s">
+      <c r="D2" s="127"/>
+      <c r="E2" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="130"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="123"/>
-      <c r="R2" s="123"/>
-      <c r="S2" s="123"/>
-      <c r="T2" s="123"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="R2" s="122"/>
+      <c r="S2" s="122"/>
+      <c r="T2" s="122"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1">
       <c r="A3" s="69" t="s">
@@ -9579,13 +9588,13 @@
       <c r="D3" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="111" t="s">
+      <c r="E3" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="111" t="s">
+      <c r="F3" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="114" t="s">
+      <c r="G3" s="113" t="s">
         <v>137</v>
       </c>
       <c r="H3" s="71" t="s">
@@ -9635,7 +9644,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="27"/>
-      <c r="G4" s="112"/>
+      <c r="G4" s="111"/>
       <c r="H4" s="20">
         <v>0</v>
       </c>
@@ -9710,7 +9719,7 @@
       <c r="F6" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="G6" s="91"/>
+      <c r="G6" s="90"/>
       <c r="H6" s="29">
         <v>2</v>
       </c>
@@ -9756,13 +9765,13 @@
       <c r="D7" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="86" t="s">
+      <c r="E7" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="101" t="s">
+      <c r="F7" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="92"/>
+      <c r="G7" s="91"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
       <c r="J7" s="29"/>
@@ -9781,20 +9790,22 @@
       <c r="A8" s="23">
         <v>1</v>
       </c>
-      <c r="B8" s="82"/>
+      <c r="B8" s="134">
+        <v>3</v>
+      </c>
       <c r="C8" s="24">
         <v>1</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="83" t="s">
+      <c r="E8" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="102" t="s">
+      <c r="F8" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="99">
+      <c r="G8" s="98">
         <v>23255</v>
       </c>
       <c r="H8" s="29"/>
@@ -9901,7 +9912,7 @@
       <c r="F12" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="G12" s="91"/>
+      <c r="G12" s="90"/>
       <c r="H12" s="29">
         <v>3</v>
       </c>
@@ -9947,13 +9958,13 @@
       <c r="D13" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="86" t="s">
+      <c r="E13" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="101" t="s">
+      <c r="F13" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="G13" s="92"/>
+      <c r="G13" s="91"/>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
       <c r="J13" s="29"/>
@@ -9969,23 +9980,25 @@
       <c r="T13" s="35"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="84">
-        <v>1</v>
-      </c>
-      <c r="B14" s="32"/>
+      <c r="A14" s="83">
+        <v>1</v>
+      </c>
+      <c r="B14" s="132">
+        <v>3</v>
+      </c>
       <c r="C14" s="28">
         <v>1</v>
       </c>
       <c r="D14" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="85" t="s">
+      <c r="E14" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="103" t="s">
+      <c r="F14" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="93">
+      <c r="G14" s="92">
         <v>23255</v>
       </c>
       <c r="H14" s="29"/>
@@ -10006,7 +10019,9 @@
       <c r="A15" s="13">
         <v>2</v>
       </c>
-      <c r="B15" s="15"/>
+      <c r="B15" s="133">
+        <v>3</v>
+      </c>
       <c r="C15" s="15">
         <v>1</v>
       </c>
@@ -10019,7 +10034,7 @@
       <c r="F15" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="94">
+      <c r="G15" s="93">
         <v>20122</v>
       </c>
       <c r="H15" s="29"/>
@@ -10038,7 +10053,7 @@
     </row>
     <row r="16" spans="1:20" ht="72.5">
       <c r="A16" s="30"/>
-      <c r="B16" s="29"/>
+      <c r="B16" s="135"/>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
@@ -10147,7 +10162,7 @@
       <c r="F20" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="G20" s="91"/>
+      <c r="G20" s="90"/>
       <c r="H20" s="29">
         <v>5</v>
       </c>
@@ -10181,25 +10196,25 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="15" thickBot="1">
-      <c r="A21" s="87">
-        <v>2</v>
-      </c>
-      <c r="B21" s="88">
-        <v>2</v>
-      </c>
-      <c r="C21" s="86">
-        <v>1</v>
-      </c>
-      <c r="D21" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="86" t="s">
+      <c r="A21" s="86">
+        <v>2</v>
+      </c>
+      <c r="B21" s="87">
+        <v>2</v>
+      </c>
+      <c r="C21" s="85">
+        <v>1</v>
+      </c>
+      <c r="D21" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="104" t="s">
+      <c r="F21" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="G21" s="95"/>
+      <c r="G21" s="94"/>
       <c r="H21" s="29"/>
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
@@ -10215,23 +10230,25 @@
       <c r="T21" s="35"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="84">
-        <v>1</v>
-      </c>
-      <c r="B22" s="32"/>
+      <c r="A22" s="83">
+        <v>1</v>
+      </c>
+      <c r="B22" s="132">
+        <v>3</v>
+      </c>
       <c r="C22" s="28">
         <v>1</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="85" t="s">
+      <c r="E22" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="F22" s="103" t="s">
+      <c r="F22" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="G22" s="93">
+      <c r="G22" s="92">
         <v>23255</v>
       </c>
       <c r="H22" s="29"/>
@@ -10252,7 +10269,9 @@
       <c r="A23" s="6">
         <v>2</v>
       </c>
-      <c r="B23" s="8"/>
+      <c r="B23" s="132">
+        <v>3</v>
+      </c>
       <c r="C23" s="8">
         <v>1</v>
       </c>
@@ -10262,10 +10281,10 @@
       <c r="E23" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="105" t="s">
+      <c r="F23" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="G23" s="96">
+      <c r="G23" s="95">
         <v>20122</v>
       </c>
       <c r="H23" s="29"/>
@@ -10286,7 +10305,9 @@
       <c r="A24" s="13">
         <v>3</v>
       </c>
-      <c r="B24" s="14"/>
+      <c r="B24" s="132">
+        <v>3</v>
+      </c>
       <c r="C24" s="15">
         <v>8</v>
       </c>
@@ -10299,7 +10320,7 @@
       <c r="F24" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="94"/>
+      <c r="G24" s="93"/>
       <c r="H24" s="29"/>
       <c r="I24" s="29"/>
       <c r="J24" s="29"/>
@@ -10467,7 +10488,7 @@
       <c r="F31" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="G31" s="91"/>
+      <c r="G31" s="90"/>
       <c r="H31" s="29">
         <v>6</v>
       </c>
@@ -10501,25 +10522,25 @@
       </c>
     </row>
     <row r="32" spans="1:20" ht="15" thickBot="1">
-      <c r="A32" s="87">
-        <v>2</v>
-      </c>
-      <c r="B32" s="88">
-        <v>2</v>
-      </c>
-      <c r="C32" s="86">
-        <v>1</v>
-      </c>
-      <c r="D32" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="86" t="s">
+      <c r="A32" s="86">
+        <v>2</v>
+      </c>
+      <c r="B32" s="87">
+        <v>2</v>
+      </c>
+      <c r="C32" s="85">
+        <v>1</v>
+      </c>
+      <c r="D32" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="F32" s="104" t="s">
+      <c r="F32" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="G32" s="95"/>
+      <c r="G32" s="94"/>
       <c r="H32" s="29"/>
       <c r="I32" s="29"/>
       <c r="J32" s="29"/>
@@ -10535,23 +10556,25 @@
       <c r="T32" s="35"/>
     </row>
     <row r="33" spans="1:20">
-      <c r="A33" s="84">
-        <v>1</v>
-      </c>
-      <c r="B33" s="32"/>
+      <c r="A33" s="83">
+        <v>1</v>
+      </c>
+      <c r="B33" s="132">
+        <v>3</v>
+      </c>
       <c r="C33" s="28">
         <v>1</v>
       </c>
       <c r="D33" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="85" t="s">
+      <c r="E33" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="F33" s="103" t="s">
+      <c r="F33" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="G33" s="93">
+      <c r="G33" s="92">
         <v>23255</v>
       </c>
       <c r="H33" s="29"/>
@@ -10572,7 +10595,9 @@
       <c r="A34" s="6">
         <v>2</v>
       </c>
-      <c r="B34" s="8"/>
+      <c r="B34" s="132">
+        <v>3</v>
+      </c>
       <c r="C34" s="8">
         <v>1</v>
       </c>
@@ -10582,10 +10607,10 @@
       <c r="E34" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F34" s="105" t="s">
+      <c r="F34" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="G34" s="96">
+      <c r="G34" s="95">
         <v>20122</v>
       </c>
       <c r="H34" s="29"/>
@@ -10606,7 +10631,9 @@
       <c r="A35" s="13">
         <v>3</v>
       </c>
-      <c r="B35" s="14"/>
+      <c r="B35" s="132">
+        <v>3</v>
+      </c>
       <c r="C35" s="15">
         <v>8</v>
       </c>
@@ -10619,7 +10646,7 @@
       <c r="F35" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="G35" s="94">
+      <c r="G35" s="93">
         <v>16122</v>
       </c>
       <c r="H35" s="29"/>
@@ -10810,7 +10837,7 @@
       <c r="F43" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="G43" s="91"/>
+      <c r="G43" s="90"/>
       <c r="H43" s="29">
         <v>7</v>
       </c>
@@ -10846,25 +10873,25 @@
       <c r="T43" s="35"/>
     </row>
     <row r="44" spans="1:20" ht="44" thickBot="1">
-      <c r="A44" s="87">
-        <v>2</v>
-      </c>
-      <c r="B44" s="88">
-        <v>2</v>
-      </c>
-      <c r="C44" s="86">
-        <v>1</v>
-      </c>
-      <c r="D44" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="E44" s="86" t="s">
+      <c r="A44" s="86">
+        <v>2</v>
+      </c>
+      <c r="B44" s="87">
+        <v>2</v>
+      </c>
+      <c r="C44" s="85">
+        <v>1</v>
+      </c>
+      <c r="D44" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="F44" s="104" t="s">
+      <c r="F44" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="G44" s="95"/>
+      <c r="G44" s="94"/>
       <c r="H44" s="29"/>
       <c r="I44" s="29"/>
       <c r="J44" s="29"/>
@@ -10886,23 +10913,25 @@
       <c r="T44" s="35"/>
     </row>
     <row r="45" spans="1:20">
-      <c r="A45" s="84">
-        <v>1</v>
-      </c>
-      <c r="B45" s="32"/>
+      <c r="A45" s="83">
+        <v>1</v>
+      </c>
+      <c r="B45" s="132">
+        <v>3</v>
+      </c>
       <c r="C45" s="28">
         <v>1</v>
       </c>
       <c r="D45" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="E45" s="85" t="s">
+      <c r="E45" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="F45" s="103" t="s">
+      <c r="F45" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="G45" s="93">
+      <c r="G45" s="92">
         <v>23255</v>
       </c>
       <c r="H45" s="29"/>
@@ -10923,7 +10952,9 @@
       <c r="A46" s="6">
         <v>2</v>
       </c>
-      <c r="B46" s="8"/>
+      <c r="B46" s="132">
+        <v>3</v>
+      </c>
       <c r="C46" s="8">
         <v>1</v>
       </c>
@@ -10933,10 +10964,10 @@
       <c r="E46" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F46" s="105" t="s">
+      <c r="F46" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="G46" s="96">
+      <c r="G46" s="95">
         <v>20122</v>
       </c>
       <c r="H46" s="29"/>
@@ -10957,7 +10988,9 @@
       <c r="A47" s="13">
         <v>3</v>
       </c>
-      <c r="B47" s="14"/>
+      <c r="B47" s="132">
+        <v>3</v>
+      </c>
       <c r="C47" s="15">
         <v>8</v>
       </c>
@@ -10970,7 +11003,7 @@
       <c r="F47" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="G47" s="94">
+      <c r="G47" s="93">
         <v>15122</v>
       </c>
       <c r="H47" s="29"/>
@@ -11035,7 +11068,7 @@
       <c r="F49" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="G49" s="91"/>
+      <c r="G49" s="90"/>
       <c r="H49" s="29">
         <v>8</v>
       </c>
@@ -11084,10 +11117,10 @@
       <c r="E50" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F50" s="106" t="s">
+      <c r="F50" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="G50" s="97"/>
+      <c r="G50" s="96"/>
       <c r="H50" s="29"/>
       <c r="I50" s="29"/>
       <c r="J50" s="29"/>
@@ -11103,17 +11136,21 @@
       <c r="T50" s="35"/>
     </row>
     <row r="51" spans="1:20" ht="15" thickBot="1">
-      <c r="A51" s="87"/>
-      <c r="B51" s="86"/>
-      <c r="C51" s="86"/>
-      <c r="D51" s="86"/>
-      <c r="E51" s="86" t="s">
+      <c r="A51" s="86">
+        <v>3</v>
+      </c>
+      <c r="B51" s="87">
+        <v>2</v>
+      </c>
+      <c r="C51" s="85"/>
+      <c r="D51" s="85"/>
+      <c r="E51" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="F51" s="104" t="s">
+      <c r="F51" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="G51" s="95"/>
+      <c r="G51" s="94"/>
       <c r="H51" s="29"/>
       <c r="I51" s="29"/>
       <c r="J51" s="29"/>
@@ -11129,17 +11166,21 @@
       <c r="T51" s="35"/>
     </row>
     <row r="52" spans="1:20" ht="15" thickBot="1">
-      <c r="A52" s="23"/>
-      <c r="B52" s="24"/>
+      <c r="A52" s="23">
+        <v>1</v>
+      </c>
+      <c r="B52" s="24">
+        <v>3</v>
+      </c>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
       <c r="E52" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="F52" s="107" t="s">
+      <c r="F52" s="106" t="s">
         <v>94</v>
       </c>
-      <c r="G52" s="110">
+      <c r="G52" s="109">
         <v>11322</v>
       </c>
       <c r="H52" s="29"/>
@@ -11196,7 +11237,7 @@
       <c r="F54" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="G54" s="91"/>
+      <c r="G54" s="90"/>
       <c r="H54" s="29">
         <v>9</v>
       </c>
@@ -11245,10 +11286,10 @@
       <c r="E55" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F55" s="106" t="s">
+      <c r="F55" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="G55" s="97"/>
+      <c r="G55" s="96"/>
       <c r="H55" s="29"/>
       <c r="I55" s="29"/>
       <c r="J55" s="29"/>
@@ -11264,21 +11305,25 @@
       <c r="T55" s="35"/>
     </row>
     <row r="56" spans="1:20" ht="15" thickBot="1">
-      <c r="A56" s="87"/>
-      <c r="B56" s="86"/>
-      <c r="C56" s="86">
-        <v>1</v>
-      </c>
-      <c r="D56" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="E56" s="86" t="s">
+      <c r="A56" s="86">
+        <v>3</v>
+      </c>
+      <c r="B56" s="87">
+        <v>2</v>
+      </c>
+      <c r="C56" s="85">
+        <v>1</v>
+      </c>
+      <c r="D56" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="E56" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="F56" s="104" t="s">
+      <c r="F56" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="G56" s="95"/>
+      <c r="G56" s="94"/>
       <c r="H56" s="29"/>
       <c r="I56" s="29"/>
       <c r="J56" s="29"/>
@@ -11294,8 +11339,12 @@
       <c r="T56" s="35"/>
     </row>
     <row r="57" spans="1:20">
-      <c r="A57" s="84"/>
-      <c r="B57" s="28"/>
+      <c r="A57" s="83">
+        <v>1</v>
+      </c>
+      <c r="B57" s="28">
+        <v>3</v>
+      </c>
       <c r="C57" s="28">
         <v>1</v>
       </c>
@@ -11305,10 +11354,10 @@
       <c r="E57" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="F57" s="108" t="s">
+      <c r="F57" s="107" t="s">
         <v>94</v>
       </c>
-      <c r="G57" s="98">
+      <c r="G57" s="97">
         <v>11322</v>
       </c>
       <c r="H57" s="29"/>
@@ -11326,8 +11375,12 @@
       <c r="T57" s="35"/>
     </row>
     <row r="58" spans="1:20" ht="15" thickBot="1">
-      <c r="A58" s="13"/>
-      <c r="B58" s="15"/>
+      <c r="A58" s="13">
+        <v>2</v>
+      </c>
+      <c r="B58" s="15">
+        <v>3</v>
+      </c>
       <c r="C58" s="75">
         <v>6</v>
       </c>
@@ -11337,10 +11390,10 @@
       <c r="E58" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="F58" s="109" t="s">
+      <c r="F58" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="G58" s="110">
+      <c r="G58" s="109">
         <v>11322</v>
       </c>
       <c r="H58" s="29"/>
@@ -11397,7 +11450,7 @@
       <c r="F60" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="G60" s="91"/>
+      <c r="G60" s="90"/>
       <c r="H60" s="29">
         <v>10</v>
       </c>
@@ -11448,10 +11501,10 @@
       <c r="E61" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F61" s="106" t="s">
+      <c r="F61" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="G61" s="97"/>
+      <c r="G61" s="96"/>
       <c r="H61" s="29">
         <v>11</v>
       </c>
@@ -11481,21 +11534,25 @@
       <c r="T61" s="35"/>
     </row>
     <row r="62" spans="1:20" ht="15" thickBot="1">
-      <c r="A62" s="87"/>
-      <c r="B62" s="86"/>
-      <c r="C62" s="86">
-        <v>1</v>
-      </c>
-      <c r="D62" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="E62" s="86" t="s">
+      <c r="A62" s="86">
+        <v>3</v>
+      </c>
+      <c r="B62" s="87">
+        <v>2</v>
+      </c>
+      <c r="C62" s="85">
+        <v>1</v>
+      </c>
+      <c r="D62" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="E62" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="F62" s="104" t="s">
+      <c r="F62" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="G62" s="95"/>
+      <c r="G62" s="94"/>
       <c r="H62" s="29"/>
       <c r="I62" s="29"/>
       <c r="J62" s="29"/>
@@ -11511,8 +11568,12 @@
       <c r="T62" s="35"/>
     </row>
     <row r="63" spans="1:20">
-      <c r="A63" s="84"/>
-      <c r="B63" s="28"/>
+      <c r="A63" s="83">
+        <v>1</v>
+      </c>
+      <c r="B63" s="28">
+        <v>3</v>
+      </c>
       <c r="C63" s="28">
         <v>1</v>
       </c>
@@ -11522,10 +11583,10 @@
       <c r="E63" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="F63" s="108" t="s">
+      <c r="F63" s="107" t="s">
         <v>94</v>
       </c>
-      <c r="G63" s="98">
+      <c r="G63" s="97">
         <v>11322</v>
       </c>
       <c r="H63" s="29"/>
@@ -11543,8 +11604,12 @@
       <c r="T63" s="35"/>
     </row>
     <row r="64" spans="1:20" ht="15" thickBot="1">
-      <c r="A64" s="13"/>
-      <c r="B64" s="15"/>
+      <c r="A64" s="13">
+        <v>2</v>
+      </c>
+      <c r="B64" s="15">
+        <v>3</v>
+      </c>
       <c r="C64" s="75">
         <v>6</v>
       </c>
@@ -11554,10 +11619,10 @@
       <c r="E64" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="F64" s="109" t="s">
+      <c r="F64" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="G64" s="110">
+      <c r="G64" s="109">
         <v>11322</v>
       </c>
       <c r="H64" s="29"/>
@@ -11730,7 +11795,7 @@
       <c r="F70" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="G70" s="91"/>
+      <c r="G70" s="90"/>
       <c r="H70" s="29">
         <v>13</v>
       </c>
@@ -11779,10 +11844,10 @@
       <c r="E71" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F71" s="106" t="s">
+      <c r="F71" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="G71" s="97"/>
+      <c r="G71" s="96"/>
       <c r="H71" s="29"/>
       <c r="I71" s="29"/>
       <c r="J71" s="29"/>
@@ -11798,17 +11863,25 @@
       <c r="T71" s="35"/>
     </row>
     <row r="72" spans="1:20">
-      <c r="A72" s="6"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
+      <c r="A72" s="6">
+        <v>3</v>
+      </c>
+      <c r="B72" s="7">
+        <v>2</v>
+      </c>
+      <c r="C72" s="8">
+        <v>1</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="E72" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F72" s="106" t="s">
+      <c r="F72" s="105" t="s">
         <v>97</v>
       </c>
-      <c r="G72" s="97"/>
+      <c r="G72" s="96"/>
       <c r="H72" s="29"/>
       <c r="I72" s="29"/>
       <c r="J72" s="29"/>
@@ -11824,25 +11897,25 @@
       <c r="T72" s="35"/>
     </row>
     <row r="73" spans="1:20" ht="15" thickBot="1">
-      <c r="A73" s="87">
-        <v>3</v>
-      </c>
-      <c r="B73" s="88">
-        <v>2</v>
-      </c>
-      <c r="C73" s="86">
-        <v>1</v>
-      </c>
-      <c r="D73" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="E73" s="86" t="s">
+      <c r="A73" s="86">
+        <v>4</v>
+      </c>
+      <c r="B73" s="87">
+        <v>2</v>
+      </c>
+      <c r="C73" s="85">
+        <v>1</v>
+      </c>
+      <c r="D73" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="E73" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="F73" s="104" t="s">
+      <c r="F73" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="G73" s="95"/>
+      <c r="G73" s="94"/>
       <c r="H73" s="29"/>
       <c r="I73" s="29"/>
       <c r="J73" s="29"/>
@@ -11861,20 +11934,22 @@
       <c r="A74" s="23">
         <v>1</v>
       </c>
-      <c r="B74" s="82"/>
+      <c r="B74" s="134">
+        <v>3</v>
+      </c>
       <c r="C74" s="24">
         <v>1</v>
       </c>
       <c r="D74" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E74" s="83" t="s">
+      <c r="E74" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="F74" s="102" t="s">
+      <c r="F74" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="G74" s="99">
+      <c r="G74" s="98">
         <v>11111</v>
       </c>
       <c r="H74" s="29"/>
@@ -12152,7 +12227,7 @@
       <c r="F85" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="G85" s="91"/>
+      <c r="G85" s="90"/>
       <c r="H85" s="29">
         <v>18</v>
       </c>
@@ -12201,10 +12276,10 @@
       <c r="E86" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F86" s="106" t="s">
+      <c r="F86" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="G86" s="97"/>
+      <c r="G86" s="96"/>
       <c r="H86" s="29"/>
       <c r="I86" s="29"/>
       <c r="J86" s="29"/>
@@ -12220,17 +12295,25 @@
       <c r="T86" s="35"/>
     </row>
     <row r="87" spans="1:20">
-      <c r="A87" s="6"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
+      <c r="A87" s="6">
+        <v>3</v>
+      </c>
+      <c r="B87" s="7">
+        <v>2</v>
+      </c>
+      <c r="C87" s="8">
+        <v>1</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="E87" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F87" s="106" t="s">
+      <c r="F87" s="105" t="s">
         <v>97</v>
       </c>
-      <c r="G87" s="97"/>
+      <c r="G87" s="96"/>
       <c r="H87" s="29"/>
       <c r="I87" s="29"/>
       <c r="J87" s="29"/>
@@ -12246,25 +12329,25 @@
       <c r="T87" s="35"/>
     </row>
     <row r="88" spans="1:20" ht="15" thickBot="1">
-      <c r="A88" s="87">
-        <v>3</v>
-      </c>
-      <c r="B88" s="88">
-        <v>2</v>
-      </c>
-      <c r="C88" s="86">
-        <v>1</v>
-      </c>
-      <c r="D88" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="E88" s="86" t="s">
+      <c r="A88" s="86">
+        <v>4</v>
+      </c>
+      <c r="B88" s="87">
+        <v>2</v>
+      </c>
+      <c r="C88" s="85">
+        <v>1</v>
+      </c>
+      <c r="D88" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="E88" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="F88" s="104" t="s">
+      <c r="F88" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="G88" s="95"/>
+      <c r="G88" s="94"/>
       <c r="H88" s="29"/>
       <c r="I88" s="29"/>
       <c r="J88" s="29"/>
@@ -12280,23 +12363,25 @@
       <c r="T88" s="35"/>
     </row>
     <row r="89" spans="1:20" ht="29">
-      <c r="A89" s="84">
-        <v>1</v>
-      </c>
-      <c r="B89" s="32"/>
+      <c r="A89" s="83">
+        <v>1</v>
+      </c>
+      <c r="B89" s="132">
+        <v>3</v>
+      </c>
       <c r="C89" s="28">
         <v>1</v>
       </c>
       <c r="D89" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="E89" s="85" t="s">
+      <c r="E89" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="F89" s="103" t="s">
+      <c r="F89" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="G89" s="93">
+      <c r="G89" s="92">
         <v>11111</v>
       </c>
       <c r="H89" s="29"/>
@@ -12317,7 +12402,9 @@
       <c r="A90" s="13">
         <v>2</v>
       </c>
-      <c r="B90" s="14"/>
+      <c r="B90" s="133">
+        <v>3</v>
+      </c>
       <c r="C90" s="15">
         <v>2</v>
       </c>
@@ -12330,7 +12417,7 @@
       <c r="F90" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="G90" s="94">
+      <c r="G90" s="93">
         <v>14111</v>
       </c>
       <c r="H90" s="29"/>
@@ -12416,7 +12503,7 @@
       <c r="F93" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="G93" s="91"/>
+      <c r="G93" s="90"/>
       <c r="H93" s="29">
         <v>19</v>
       </c>
@@ -12465,10 +12552,10 @@
       <c r="E94" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F94" s="106" t="s">
+      <c r="F94" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="G94" s="97"/>
+      <c r="G94" s="96"/>
       <c r="H94" s="29"/>
       <c r="I94" s="29"/>
       <c r="J94" s="29"/>
@@ -12484,17 +12571,25 @@
       <c r="T94" s="35"/>
     </row>
     <row r="95" spans="1:20">
-      <c r="A95" s="6"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
+      <c r="A95" s="6">
+        <v>3</v>
+      </c>
+      <c r="B95" s="7">
+        <v>2</v>
+      </c>
+      <c r="C95" s="8">
+        <v>1</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="E95" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F95" s="106" t="s">
+      <c r="F95" s="105" t="s">
         <v>97</v>
       </c>
-      <c r="G95" s="97"/>
+      <c r="G95" s="96"/>
       <c r="H95" s="29"/>
       <c r="I95" s="29"/>
       <c r="J95" s="29"/>
@@ -12510,25 +12605,25 @@
       <c r="T95" s="35"/>
     </row>
     <row r="96" spans="1:20" ht="15" thickBot="1">
-      <c r="A96" s="87">
-        <v>3</v>
-      </c>
-      <c r="B96" s="88">
-        <v>2</v>
-      </c>
-      <c r="C96" s="86">
-        <v>1</v>
-      </c>
-      <c r="D96" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="E96" s="86" t="s">
+      <c r="A96" s="86">
+        <v>4</v>
+      </c>
+      <c r="B96" s="87">
+        <v>2</v>
+      </c>
+      <c r="C96" s="85">
+        <v>1</v>
+      </c>
+      <c r="D96" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="E96" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="F96" s="104" t="s">
+      <c r="F96" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="G96" s="95"/>
+      <c r="G96" s="94"/>
       <c r="H96" s="29"/>
       <c r="I96" s="29"/>
       <c r="J96" s="29"/>
@@ -12544,23 +12639,25 @@
       <c r="T96" s="35"/>
     </row>
     <row r="97" spans="1:21" ht="29">
-      <c r="A97" s="84">
-        <v>1</v>
-      </c>
-      <c r="B97" s="32"/>
+      <c r="A97" s="83">
+        <v>1</v>
+      </c>
+      <c r="B97" s="132">
+        <v>3</v>
+      </c>
       <c r="C97" s="28">
         <v>1</v>
       </c>
       <c r="D97" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="E97" s="85" t="s">
+      <c r="E97" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="F97" s="103" t="s">
+      <c r="F97" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="G97" s="93">
+      <c r="G97" s="92">
         <v>11111</v>
       </c>
       <c r="H97" s="29"/>
@@ -12581,7 +12678,9 @@
       <c r="A98" s="13">
         <v>2</v>
       </c>
-      <c r="B98" s="14"/>
+      <c r="B98" s="133">
+        <v>3</v>
+      </c>
       <c r="C98" s="15">
         <v>2</v>
       </c>
@@ -12594,7 +12693,7 @@
       <c r="F98" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="G98" s="94">
+      <c r="G98" s="93">
         <v>14111</v>
       </c>
       <c r="H98" s="29"/>
@@ -12722,7 +12821,7 @@
       <c r="F103" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="G103" s="91"/>
+      <c r="G103" s="90"/>
       <c r="H103" s="29">
         <v>20</v>
       </c>
@@ -12771,10 +12870,10 @@
       <c r="E104" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F104" s="106" t="s">
+      <c r="F104" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="G104" s="97"/>
+      <c r="G104" s="96"/>
       <c r="H104" s="29"/>
       <c r="I104" s="29"/>
       <c r="J104" s="29"/>
@@ -12790,17 +12889,25 @@
       <c r="T104" s="35"/>
     </row>
     <row r="105" spans="1:21">
-      <c r="A105" s="6"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
+      <c r="A105" s="6">
+        <v>3</v>
+      </c>
+      <c r="B105" s="7">
+        <v>2</v>
+      </c>
+      <c r="C105" s="8">
+        <v>1</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="E105" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F105" s="106" t="s">
+      <c r="F105" s="105" t="s">
         <v>97</v>
       </c>
-      <c r="G105" s="97"/>
+      <c r="G105" s="96"/>
       <c r="H105" s="29"/>
       <c r="I105" s="29"/>
       <c r="J105" s="29"/>
@@ -12816,25 +12923,25 @@
       <c r="T105" s="35"/>
     </row>
     <row r="106" spans="1:21" ht="15" thickBot="1">
-      <c r="A106" s="87">
-        <v>3</v>
-      </c>
-      <c r="B106" s="88">
-        <v>2</v>
-      </c>
-      <c r="C106" s="86">
-        <v>1</v>
-      </c>
-      <c r="D106" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="E106" s="86" t="s">
+      <c r="A106" s="86">
+        <v>4</v>
+      </c>
+      <c r="B106" s="87">
+        <v>2</v>
+      </c>
+      <c r="C106" s="85">
+        <v>1</v>
+      </c>
+      <c r="D106" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="E106" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="F106" s="104" t="s">
+      <c r="F106" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="G106" s="95"/>
+      <c r="G106" s="94"/>
       <c r="H106" s="29"/>
       <c r="I106" s="29"/>
       <c r="J106" s="29"/>
@@ -12850,23 +12957,25 @@
       <c r="T106" s="35"/>
     </row>
     <row r="107" spans="1:21" ht="29">
-      <c r="A107" s="84">
-        <v>1</v>
-      </c>
-      <c r="B107" s="32"/>
+      <c r="A107" s="83">
+        <v>1</v>
+      </c>
+      <c r="B107" s="132">
+        <v>3</v>
+      </c>
       <c r="C107" s="28">
         <v>1</v>
       </c>
       <c r="D107" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="E107" s="85" t="s">
+      <c r="E107" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="F107" s="103" t="s">
+      <c r="F107" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="G107" s="93">
+      <c r="G107" s="92">
         <v>11111</v>
       </c>
       <c r="H107" s="29"/>
@@ -12887,7 +12996,9 @@
       <c r="A108" s="13">
         <v>2</v>
       </c>
-      <c r="B108" s="14"/>
+      <c r="B108" s="133">
+        <v>3</v>
+      </c>
       <c r="C108" s="15">
         <v>2</v>
       </c>
@@ -12900,7 +13011,7 @@
       <c r="F108" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="G108" s="94">
+      <c r="G108" s="93">
         <v>14111</v>
       </c>
       <c r="H108" s="29"/>
@@ -12968,7 +13079,7 @@
       <c r="D111" s="22"/>
       <c r="E111" s="22"/>
       <c r="F111" s="22"/>
-      <c r="G111" s="100"/>
+      <c r="G111" s="99"/>
       <c r="H111" s="22">
         <v>100</v>
       </c>
@@ -12977,7 +13088,7 @@
         <v>44</v>
       </c>
       <c r="K111" s="22"/>
-      <c r="L111" s="89" t="s">
+      <c r="L111" s="88" t="s">
         <v>45</v>
       </c>
       <c r="M111" s="22"/>
